--- a/mutualite-rh/chequedej/fr.mutualite.rh.chequedej.model.editor/template/template-saisie.xlsx
+++ b/mutualite-rh/chequedej/fr.mutualite.rh.chequedej.model.editor/template/template-saisie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Saisie" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t> Commande Chèque Dejeuner </t>
   </si>
@@ -40,10 +40,18 @@
     <t>Nombre de jours entiers prévus pour </t>
   </si>
   <si>
+    <t>Si un salarié manque dans la liste, 
+merci de le rajouter manuellement, 
+Même si vous ne connaissez pas le matricule !</t>
+  </si>
+  <si>
     <t>HALLIDAY</t>
   </si>
   <si>
     <t>Johnny</t>
+  </si>
+  <si>
+    <t>Temps complet</t>
   </si>
 </sst>
 </file>
@@ -55,7 +63,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -78,6 +86,12 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="20"/>
       <name val="Arial"/>
@@ -85,6 +99,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="15"/>
       <name val="Arial"/>
@@ -92,7 +112,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b val="true"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -109,6 +130,23 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="13"/>
+      <color rgb="FFFF3333"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -168,45 +206,69 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -230,18 +292,22 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <name val="Arial"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <i val="1"/>
+        <color rgb="FFCC3300"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
         <charset val="1"/>
         <family val="2"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3333"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <colors>
@@ -298,7 +364,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFCC3300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -312,99 +378,104 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="2:2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="12.5561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="88.9591836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="47.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="79.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+    <row r="4" customFormat="false" ht="88.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
+      <c r="H4" s="15" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>1532</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="B5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="10" t="n">
+      <c r="C5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="E5" s="10" t="n">
+      <c r="F5" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="J5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="K5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="18"/>
+      <c r="Q5" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A1:E1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
   </mergeCells>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(T($B5)="",T(A5)="")</formula>
+  <conditionalFormatting sqref="D5:D400">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"Temps partiel"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A414">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>T($B5)=="" and T(A5)=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:E501">
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>AND(NOT(ISBLANK($B5)),ISBLANK(A5))</formula>
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"Temps complet"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/mutualite-rh/chequedej/fr.mutualite.rh.chequedej.model.editor/template/template-saisie.xlsx
+++ b/mutualite-rh/chequedej/fr.mutualite.rh.chequedej.model.editor/template/template-saisie.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="Saisie" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Saisie" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -22,7 +21,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t> Commande Chèque Dejeuner </t>
+    <t>Commande Chèque Dejeuner</t>
   </si>
   <si>
     <t>Année Mois</t>
@@ -34,10 +33,10 @@
     <t>Salarié</t>
   </si>
   <si>
-    <t>Nombre de jours entiers travaillés en </t>
-  </si>
-  <si>
-    <t>Nombre de jours entiers prévus pour </t>
+    <t>Nombre de jours entiers travaillés en</t>
+  </si>
+  <si>
+    <t>Nombre de jours entiers prévus pour</t>
   </si>
   <si>
     <t>Si un salarié manque dans la liste, 
@@ -51,19 +50,17 @@
     <t>Johnny</t>
   </si>
   <si>
-    <t>Temps complet</t>
+    <t>Temps partiel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -71,28 +68,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="20"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -105,21 +87,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -127,7 +109,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -135,7 +117,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -143,8 +125,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="13"/>
       <color rgb="FFFF3333"/>
       <name val="Arial"/>
@@ -173,7 +155,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -181,135 +163,109 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <i val="1"/>
-        <color rgb="FFCC3300"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <i/>
+        <color rgb="FFCC3300"/>
         <name val="Arial"/>
-        <charset val="1"/>
-        <family val="2"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Arial"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <i/>
+        <color rgb="FFCC3300"/>
+        <name val="Arial"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -368,65 +324,359 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="88.9591836734694"/>
+    <col min="2" max="2" width="23.42578125"/>
+    <col min="3" max="3" width="13.140625"/>
+    <col min="4" max="4" width="10.7109375" style="4"/>
+    <col min="5" max="6" width="10.7109375"/>
+    <col min="8" max="8" width="89"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="47.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:17" ht="47.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="47.75" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="3"/>
+    <row r="2" spans="1:17" ht="47.85" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="5"/>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="11"/>
     </row>
-    <row r="4" customFormat="false" ht="88.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:17" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="13"/>
       <c r="E4" s="14" t="s">
         <v>4</v>
@@ -438,8 +688,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>1532</v>
       </c>
       <c r="B5" s="16" t="s">
@@ -448,13 +698,13 @@
       <c r="C5" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="16" t="n">
+      <c r="E5" s="16">
         <v>12</v>
       </c>
-      <c r="F5" s="16" t="n">
+      <c r="F5" s="16">
         <v>15</v>
       </c>
       <c r="K5" s="17"/>
@@ -471,17 +721,21 @@
     <mergeCell ref="B4:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D400">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"Temps partiel"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"Temps complet"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <conditionalFormatting sqref="A5:F500">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(COUNTBLANK(A5)&gt;0,NOT(COUNTBLANK($B5)&gt;0))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/mutualite-rh/chequedej/fr.mutualite.rh.chequedej.model.editor/template/template-saisie.xlsx
+++ b/mutualite-rh/chequedej/fr.mutualite.rh.chequedej.model.editor/template/template-saisie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Saisie" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,13 +48,13 @@
 Même si vous ne connaissez pas le matricule !</t>
   </si>
   <si>
-    <t>HALLIDAY</t>
-  </si>
-  <si>
-    <t>Johnny</t>
-  </si>
-  <si>
-    <t>Temps partiel</t>
+    <t>Pas d'employé dans cet</t>
+  </si>
+  <si>
+    <t>établissement</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>-</t>
@@ -398,17 +398,20 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.5255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="88.015306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="86.9336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -463,7 +466,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>1532</v>
+        <v>0</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>8</v>
@@ -478,10 +481,10 @@
         <v>11</v>
       </c>
       <c r="F5" s="17" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G5" s="17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L5" s="18"/>
       <c r="N5" s="19"/>
